--- a/data/DATA_MOLINA.xlsx
+++ b/data/DATA_MOLINA.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Documents\ESTUDIOS_AVANZADA\MOLINA\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1D67E11-816E-4974-8AAF-6DA371DCCC20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AF67E25-BFB9-4B6A-B203-B2C415DCFC79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E3D37FAE-BA9C-4955-8F57-00EB85B4DD8F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{E3D37FAE-BA9C-4955-8F57-00EB85B4DD8F}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="78">
   <si>
     <t>Trimestre</t>
   </si>
@@ -163,6 +164,102 @@
   </si>
   <si>
     <t>Variación IPC</t>
+  </si>
+  <si>
+    <t>2007Q1</t>
+  </si>
+  <si>
+    <t>2007Q2</t>
+  </si>
+  <si>
+    <t>2007Q3</t>
+  </si>
+  <si>
+    <t>2007Q4</t>
+  </si>
+  <si>
+    <t>2008Q1</t>
+  </si>
+  <si>
+    <t>2008Q2</t>
+  </si>
+  <si>
+    <t>2008Q3</t>
+  </si>
+  <si>
+    <t>2008Q4</t>
+  </si>
+  <si>
+    <t>2009Q1</t>
+  </si>
+  <si>
+    <t>2009Q2</t>
+  </si>
+  <si>
+    <t>2009Q3</t>
+  </si>
+  <si>
+    <t>2009Q4</t>
+  </si>
+  <si>
+    <t>2010Q1</t>
+  </si>
+  <si>
+    <t>2010Q2</t>
+  </si>
+  <si>
+    <t>2010Q3</t>
+  </si>
+  <si>
+    <t>2010Q4</t>
+  </si>
+  <si>
+    <t>2011Q1</t>
+  </si>
+  <si>
+    <t>2011Q2</t>
+  </si>
+  <si>
+    <t>2011Q3</t>
+  </si>
+  <si>
+    <t>2011Q4</t>
+  </si>
+  <si>
+    <t>2012Q1</t>
+  </si>
+  <si>
+    <t>2012Q2</t>
+  </si>
+  <si>
+    <t>2012Q3</t>
+  </si>
+  <si>
+    <t>2012Q4</t>
+  </si>
+  <si>
+    <t>2013Q1</t>
+  </si>
+  <si>
+    <t>2013Q2</t>
+  </si>
+  <si>
+    <t>2013Q3</t>
+  </si>
+  <si>
+    <t>2013Q4</t>
+  </si>
+  <si>
+    <t>2014Q1</t>
+  </si>
+  <si>
+    <t>2014Q2</t>
+  </si>
+  <si>
+    <t>2014Q3</t>
+  </si>
+  <si>
+    <t>2014Q4</t>
   </si>
 </sst>
 </file>
@@ -175,7 +272,7 @@
     <numFmt numFmtId="166" formatCode="General_)"/>
     <numFmt numFmtId="167" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -204,6 +301,13 @@
     </font>
     <font>
       <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -246,7 +350,7 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -269,6 +373,18 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -588,8 +704,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC7DD9D3-47CE-4ABD-AB9C-F76C4FBDBE26}">
   <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1423,4 +1539,1484 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0895BC59-D353-4955-89A0-26E9028C8A4D}">
+  <dimension ref="A1:F73"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="B72" sqref="B72"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="11.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="60.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" s="10">
+        <v>731187.63786000002</v>
+      </c>
+      <c r="C2" s="6">
+        <v>11377291.214207958</v>
+      </c>
+      <c r="D2" s="11">
+        <v>17292655.876310468</v>
+      </c>
+      <c r="E2" s="12">
+        <v>106.83</v>
+      </c>
+      <c r="F2" s="12">
+        <v>2.06</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" s="10">
+        <v>833343.42984999996</v>
+      </c>
+      <c r="C3" s="6">
+        <v>11433544.817754831</v>
+      </c>
+      <c r="D3" s="11">
+        <v>17407116.813999362</v>
+      </c>
+      <c r="E3" s="12">
+        <v>107.07</v>
+      </c>
+      <c r="F3" s="12">
+        <v>1.71</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" s="10">
+        <v>878900.57657999999</v>
+      </c>
+      <c r="C4" s="6">
+        <v>11597021.598663563</v>
+      </c>
+      <c r="D4" s="11">
+        <v>17692523.935324684</v>
+      </c>
+      <c r="E4" s="12">
+        <v>108.12</v>
+      </c>
+      <c r="F4" s="12">
+        <v>2.5299999999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5" s="10">
+        <v>891946.84663000004</v>
+      </c>
+      <c r="C5" s="6">
+        <v>11675881.041911857</v>
+      </c>
+      <c r="D5" s="11">
+        <v>17855848.469465636</v>
+      </c>
+      <c r="E5" s="12">
+        <v>109.37</v>
+      </c>
+      <c r="F5" s="12">
+        <v>2.79</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" s="10">
+        <v>820549.73588000005</v>
+      </c>
+      <c r="C6" s="6">
+        <v>11790624.82849971</v>
+      </c>
+      <c r="D6" s="11">
+        <v>18323365.302243035</v>
+      </c>
+      <c r="E6" s="12">
+        <v>112.47</v>
+      </c>
+      <c r="F6" s="12">
+        <v>5.28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B7" s="10">
+        <v>779769.37135999999</v>
+      </c>
+      <c r="C7" s="6">
+        <v>12079644.470244385</v>
+      </c>
+      <c r="D7" s="11">
+        <v>18572269.102087967</v>
+      </c>
+      <c r="E7" s="12">
+        <v>116.77</v>
+      </c>
+      <c r="F7" s="12">
+        <v>9.0500000000000007</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B8" s="10">
+        <v>774463.59890999994</v>
+      </c>
+      <c r="C8" s="6">
+        <v>12313757.148690201</v>
+      </c>
+      <c r="D8" s="11">
+        <v>18882346.434924714</v>
+      </c>
+      <c r="E8" s="12">
+        <v>118.88</v>
+      </c>
+      <c r="F8" s="12">
+        <v>9.9499999999999993</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B9" s="10">
+        <v>707832.78315999999</v>
+      </c>
+      <c r="C9" s="6">
+        <v>12522022.877995888</v>
+      </c>
+      <c r="D9" s="11">
+        <v>19081900.244234752</v>
+      </c>
+      <c r="E9" s="12">
+        <v>119.51</v>
+      </c>
+      <c r="F9" s="12">
+        <v>9.27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B10" s="10">
+        <v>608781.17299999995</v>
+      </c>
+      <c r="C10" s="6">
+        <v>12347548.090930212</v>
+      </c>
+      <c r="D10" s="11">
+        <v>19048194.130397197</v>
+      </c>
+      <c r="E10" s="12">
+        <v>121.34</v>
+      </c>
+      <c r="F10" s="12">
+        <v>7.88</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B11" s="10">
+        <v>669850.05354999995</v>
+      </c>
+      <c r="C11" s="6">
+        <v>12270629.317201605</v>
+      </c>
+      <c r="D11" s="11">
+        <v>18961052.706924912</v>
+      </c>
+      <c r="E11" s="12">
+        <v>123.17</v>
+      </c>
+      <c r="F11" s="12">
+        <v>5.49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B12" s="10">
+        <v>717763.51875000005</v>
+      </c>
+      <c r="C12" s="6">
+        <v>12359850.145796066</v>
+      </c>
+      <c r="D12" s="11">
+        <v>18867992.407826312</v>
+      </c>
+      <c r="E12" s="12">
+        <v>123.02</v>
+      </c>
+      <c r="F12" s="12">
+        <v>3.49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="B13" s="10">
+        <v>739133.82972000004</v>
+      </c>
+      <c r="C13" s="6">
+        <v>12532276.572990751</v>
+      </c>
+      <c r="D13" s="11">
+        <v>18799372.209585764</v>
+      </c>
+      <c r="E13" s="12">
+        <v>124.22</v>
+      </c>
+      <c r="F13" s="12">
+        <v>3.94</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="B14" s="10">
+        <v>618334.42466000002</v>
+      </c>
+      <c r="C14" s="6">
+        <v>13046191.696534317</v>
+      </c>
+      <c r="D14" s="11">
+        <v>19164426.619298909</v>
+      </c>
+      <c r="E14" s="12">
+        <v>126.23</v>
+      </c>
+      <c r="F14" s="12">
+        <v>4.03</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A15" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B15" s="10">
+        <v>615504.02500999998</v>
+      </c>
+      <c r="C15" s="6">
+        <v>13173477.503136493</v>
+      </c>
+      <c r="D15" s="11">
+        <v>19406796.337221246</v>
+      </c>
+      <c r="E15" s="12">
+        <v>127.17</v>
+      </c>
+      <c r="F15" s="12">
+        <v>3.25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A16" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="B16" s="10">
+        <v>680796.24149000004</v>
+      </c>
+      <c r="C16" s="6">
+        <v>13329511.827556459</v>
+      </c>
+      <c r="D16" s="11">
+        <v>19785292.117011208</v>
+      </c>
+      <c r="E16" s="12">
+        <v>127.4</v>
+      </c>
+      <c r="F16" s="12">
+        <v>3.55</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A17" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="B17" s="10">
+        <v>676849.42532000004</v>
+      </c>
+      <c r="C17" s="6">
+        <v>13550464.188636312</v>
+      </c>
+      <c r="D17" s="11">
+        <v>20369211.069981266</v>
+      </c>
+      <c r="E17" s="12">
+        <v>128.44</v>
+      </c>
+      <c r="F17" s="12">
+        <v>3.39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A18" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="B18" s="10">
+        <v>656158.83038000006</v>
+      </c>
+      <c r="C18" s="6">
+        <v>13755111.150139667</v>
+      </c>
+      <c r="D18" s="11">
+        <v>20737236.795148697</v>
+      </c>
+      <c r="E18" s="12">
+        <v>130.5</v>
+      </c>
+      <c r="F18" s="12">
+        <v>3.38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A19" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B19" s="10">
+        <v>698270.51525000005</v>
+      </c>
+      <c r="C19" s="6">
+        <v>13893674.420876967</v>
+      </c>
+      <c r="D19" s="11">
+        <v>21251886.243875515</v>
+      </c>
+      <c r="E19" s="12">
+        <v>132.41999999999999</v>
+      </c>
+      <c r="F19" s="12">
+        <v>4.13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A20" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="B20" s="10">
+        <v>670668.37701000005</v>
+      </c>
+      <c r="C20" s="6">
+        <v>14092101.534000479</v>
+      </c>
+      <c r="D20" s="11">
+        <v>21604093.235673916</v>
+      </c>
+      <c r="E20" s="12">
+        <v>133.63</v>
+      </c>
+      <c r="F20" s="12">
+        <v>4.8899999999999997</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A21" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="B21" s="10">
+        <v>647332.78466</v>
+      </c>
+      <c r="C21" s="6">
+        <v>14227221.594234604</v>
+      </c>
+      <c r="D21" s="11">
+        <v>21809614.285272691</v>
+      </c>
+      <c r="E21" s="12">
+        <v>135.47</v>
+      </c>
+      <c r="F21" s="12">
+        <v>5.48</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A22" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="B22" s="10">
+        <v>600816.03934000002</v>
+      </c>
+      <c r="C22" s="6">
+        <v>14262363.453297365</v>
+      </c>
+      <c r="D22" s="11">
+        <v>22186857.440014165</v>
+      </c>
+      <c r="E22" s="12">
+        <v>137.86000000000001</v>
+      </c>
+      <c r="F22" s="12">
+        <v>5.65</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A23" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="B23" s="10">
+        <v>631044.84207000001</v>
+      </c>
+      <c r="C23" s="6">
+        <v>14421243.79252157</v>
+      </c>
+      <c r="D23" s="11">
+        <v>22414576.313089695</v>
+      </c>
+      <c r="E23" s="12">
+        <v>139.16</v>
+      </c>
+      <c r="F23" s="12">
+        <v>5.09</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A24" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="B24" s="10">
+        <v>609945.00375400099</v>
+      </c>
+      <c r="C24" s="6">
+        <v>14561706.442291507</v>
+      </c>
+      <c r="D24" s="11">
+        <v>22779924.614087</v>
+      </c>
+      <c r="E24" s="12">
+        <v>140.38999999999999</v>
+      </c>
+      <c r="F24" s="12">
+        <v>5.0599999999999996</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A25" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="B25" s="10">
+        <v>625087.73904000001</v>
+      </c>
+      <c r="C25" s="6">
+        <v>14744298.986057833</v>
+      </c>
+      <c r="D25" s="11">
+        <v>22960498.892756816</v>
+      </c>
+      <c r="E25" s="12">
+        <v>141.74</v>
+      </c>
+      <c r="F25" s="12">
+        <v>4.62</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A26" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="B26" s="10">
+        <v>552185.76129000005</v>
+      </c>
+      <c r="C26" s="6">
+        <v>15003025.285544312</v>
+      </c>
+      <c r="D26" s="11">
+        <v>23530150.979485109</v>
+      </c>
+      <c r="E26" s="12">
+        <v>142.72999999999999</v>
+      </c>
+      <c r="F26" s="12">
+        <v>3.53</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A27" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="B27" s="10">
+        <v>616869.45236</v>
+      </c>
+      <c r="C27" s="6">
+        <v>15229536.614583645</v>
+      </c>
+      <c r="D27" s="11">
+        <v>23991557.978590555</v>
+      </c>
+      <c r="E27" s="12">
+        <v>143.21</v>
+      </c>
+      <c r="F27" s="12">
+        <v>2.91</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A28" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="B28" s="10">
+        <v>638775.78517000005</v>
+      </c>
+      <c r="C28" s="6">
+        <v>15329667.528589178</v>
+      </c>
+      <c r="D28" s="11">
+        <v>24619807.875394769</v>
+      </c>
+      <c r="E28" s="12">
+        <v>143.38</v>
+      </c>
+      <c r="F28" s="12">
+        <v>2.12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A29" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="B29" s="10">
+        <v>641686.23030000005</v>
+      </c>
+      <c r="C29" s="6">
+        <v>15454160.330650099</v>
+      </c>
+      <c r="D29" s="11">
+        <v>24715105.001078662</v>
+      </c>
+      <c r="E29" s="12">
+        <v>145.07</v>
+      </c>
+      <c r="F29" s="12">
+        <v>2.35</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A30" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="B30" s="10">
+        <v>597605.95348000003</v>
+      </c>
+      <c r="C30" s="6">
+        <v>15323070.603667362</v>
+      </c>
+      <c r="D30" s="11">
+        <v>24775970.485814847</v>
+      </c>
+      <c r="E30" s="12">
+        <v>146.96</v>
+      </c>
+      <c r="F30" s="12">
+        <v>2.96</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A31" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="B31" s="10">
+        <v>633503.83464999998</v>
+      </c>
+      <c r="C31" s="6">
+        <v>15500314.752708554</v>
+      </c>
+      <c r="D31" s="11">
+        <v>25109867.711912483</v>
+      </c>
+      <c r="E31" s="12">
+        <v>148.13</v>
+      </c>
+      <c r="F31" s="12">
+        <v>3.44</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A32" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="B32" s="10">
+        <v>623801.02552000002</v>
+      </c>
+      <c r="C32" s="6">
+        <v>16004802.699066237</v>
+      </c>
+      <c r="D32" s="11">
+        <v>25547157.296577442</v>
+      </c>
+      <c r="E32" s="12">
+        <v>149.33000000000001</v>
+      </c>
+      <c r="F32" s="12">
+        <v>4.1500000000000004</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A33" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="B33" s="10">
+        <v>606831.32079999999</v>
+      </c>
+      <c r="C33" s="6">
+        <v>16345445.955781301</v>
+      </c>
+      <c r="D33" s="11">
+        <v>25516850.617494375</v>
+      </c>
+      <c r="E33" s="12">
+        <v>150.58000000000001</v>
+      </c>
+      <c r="F33" s="12">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A34" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B34" s="10">
+        <v>530441.30133000005</v>
+      </c>
+      <c r="C34" s="6">
+        <v>16744532.318363639</v>
+      </c>
+      <c r="D34" s="11">
+        <v>25662989.610427149</v>
+      </c>
+      <c r="E34" s="7">
+        <v>101.79</v>
+      </c>
+      <c r="F34" s="7">
+        <v>3.78</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A35" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B35" s="10">
+        <v>595361.38243</v>
+      </c>
+      <c r="C35" s="6">
+        <v>16557494.216579163</v>
+      </c>
+      <c r="D35" s="11">
+        <v>24904872.929590248</v>
+      </c>
+      <c r="E35" s="7">
+        <v>103.4</v>
+      </c>
+      <c r="F35" s="7">
+        <v>4.58</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A36" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B36" s="10">
+        <v>616259.42915749899</v>
+      </c>
+      <c r="C36" s="6">
+        <v>16335022.0607848</v>
+      </c>
+      <c r="D36" s="11">
+        <v>25369058.976684328</v>
+      </c>
+      <c r="E36" s="7">
+        <v>103.75</v>
+      </c>
+      <c r="F36" s="8">
+        <v>4.09</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A37" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B37" s="10">
+        <v>635756.77616999997</v>
+      </c>
+      <c r="C37" s="6">
+        <v>16108484.616216509</v>
+      </c>
+      <c r="D37" s="11">
+        <v>25133753.149925247</v>
+      </c>
+      <c r="E37" s="7">
+        <v>103.95</v>
+      </c>
+      <c r="F37" s="7">
+        <v>3.42</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A38" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B38" s="10">
+        <v>594735.65671999997</v>
+      </c>
+      <c r="C38" s="6">
+        <v>15178396.200618124</v>
+      </c>
+      <c r="D38" s="11">
+        <v>24779695.261107653</v>
+      </c>
+      <c r="E38" s="7">
+        <v>104.51</v>
+      </c>
+      <c r="F38" s="7">
+        <v>2.67</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A39" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B39" s="10">
+        <v>669480.87630999996</v>
+      </c>
+      <c r="C39" s="6">
+        <v>15282751.775779834</v>
+      </c>
+      <c r="D39" s="11">
+        <v>24858919.545370281</v>
+      </c>
+      <c r="E39" s="7">
+        <v>105.12</v>
+      </c>
+      <c r="F39" s="7">
+        <v>1.67</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A40" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B40" s="10">
+        <v>666394.61057999998</v>
+      </c>
+      <c r="C40" s="6">
+        <v>15407516.370218502</v>
+      </c>
+      <c r="D40" s="11">
+        <v>24960917.539904568</v>
+      </c>
+      <c r="E40" s="7">
+        <v>105.23</v>
+      </c>
+      <c r="F40" s="7">
+        <v>1.43</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A41" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B41" s="10">
+        <v>671353.45536000002</v>
+      </c>
+      <c r="C41" s="6">
+        <v>16042544.101435965</v>
+      </c>
+      <c r="D41" s="11">
+        <v>25775821.657751419</v>
+      </c>
+      <c r="E41" s="7">
+        <v>105.15</v>
+      </c>
+      <c r="F41" s="7">
+        <v>1.1599999999999999</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A42" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B42" s="10">
+        <v>625671.48877000005</v>
+      </c>
+      <c r="C42" s="6">
+        <v>16123713.880970867</v>
+      </c>
+      <c r="D42" s="11">
+        <v>26681922.738545537</v>
+      </c>
+      <c r="E42" s="7">
+        <v>105.49</v>
+      </c>
+      <c r="F42" s="7">
+        <v>0.94</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A43" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B43" s="10">
+        <v>698891.44220049796</v>
+      </c>
+      <c r="C43" s="6">
+        <v>16622071.582627282</v>
+      </c>
+      <c r="D43" s="11">
+        <v>26830156.278669264</v>
+      </c>
+      <c r="E43" s="7">
+        <v>105.95</v>
+      </c>
+      <c r="F43" s="7">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A44" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B44" s="10">
+        <v>752231.85127999797</v>
+      </c>
+      <c r="C44" s="6">
+        <v>16723784.764573796</v>
+      </c>
+      <c r="D44" s="11">
+        <v>26304819.336768623</v>
+      </c>
+      <c r="E44" s="7">
+        <v>105.36</v>
+      </c>
+      <c r="F44" s="7">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A45" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B45" s="10">
+        <v>763383.86942</v>
+      </c>
+      <c r="C45" s="6">
+        <v>16678698.75870744</v>
+      </c>
+      <c r="D45" s="11">
+        <v>26551265.761492737</v>
+      </c>
+      <c r="E45" s="7">
+        <v>104.97</v>
+      </c>
+      <c r="F45" s="7">
+        <v>-0.17</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A46" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B46" s="10">
+        <v>715049.76267959899</v>
+      </c>
+      <c r="C46" s="6">
+        <v>16768846.038559483</v>
+      </c>
+      <c r="D46" s="11">
+        <v>26911897.138424411</v>
+      </c>
+      <c r="E46" s="7">
+        <v>105.33</v>
+      </c>
+      <c r="F46" s="7">
+        <v>-0.15</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A47" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B47" s="10">
+        <v>767310.46429999999</v>
+      </c>
+      <c r="C47" s="6">
+        <v>17015710.669727009</v>
+      </c>
+      <c r="D47" s="11">
+        <v>26951553.203284908</v>
+      </c>
+      <c r="E47" s="7">
+        <v>104.97</v>
+      </c>
+      <c r="F47" s="7">
+        <v>-0.83</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A48" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B48" s="10">
+        <v>768074.25793999794</v>
+      </c>
+      <c r="C48" s="6">
+        <v>16842075.892220072</v>
+      </c>
+      <c r="D48" s="11">
+        <v>26856702.184870381</v>
+      </c>
+      <c r="E48" s="7">
+        <v>105.16</v>
+      </c>
+      <c r="F48" s="7">
+        <v>-0.22</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A49" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B49" s="10">
+        <v>780141.98897999898</v>
+      </c>
+      <c r="C49" s="6">
+        <v>16896388.399492651</v>
+      </c>
+      <c r="D49" s="11">
+        <v>26758808.473500844</v>
+      </c>
+      <c r="E49" s="7">
+        <v>105.3</v>
+      </c>
+      <c r="F49" s="7">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A50" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B50" s="10">
+        <v>736212.50990999804</v>
+      </c>
+      <c r="C50" s="6">
+        <v>17659980.861490056</v>
+      </c>
+      <c r="D50" s="11">
+        <v>26954442.155457586</v>
+      </c>
+      <c r="E50" s="7">
+        <v>105.54</v>
+      </c>
+      <c r="F50" s="7">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A51" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B51" s="10">
+        <v>809605.70653999795</v>
+      </c>
+      <c r="C51" s="6">
+        <v>17636759.469817307</v>
+      </c>
+      <c r="D51" s="11">
+        <v>27169535.521684919</v>
+      </c>
+      <c r="E51" s="7">
+        <v>105.47</v>
+      </c>
+      <c r="F51" s="7">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A52" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B52" s="10">
+        <v>845567.06958299805</v>
+      </c>
+      <c r="C52" s="6">
+        <v>16901324.433648877</v>
+      </c>
+      <c r="D52" s="11">
+        <v>26934340.385443289</v>
+      </c>
+      <c r="E52" s="7">
+        <v>105.46</v>
+      </c>
+      <c r="F52" s="7">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A53" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B53" s="10">
+        <v>843263.46731789794</v>
+      </c>
+      <c r="C53" s="6">
+        <v>16763844.235028565</v>
+      </c>
+      <c r="D53" s="11">
+        <v>26598417.937417563</v>
+      </c>
+      <c r="E53" s="7">
+        <v>105.47</v>
+      </c>
+      <c r="F53" s="7">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A54" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B54" s="10">
+        <v>721170.37734999799</v>
+      </c>
+      <c r="C54" s="6">
+        <v>17132091.976621501</v>
+      </c>
+      <c r="D54" s="11">
+        <v>26441897.090269692</v>
+      </c>
+      <c r="E54" s="7">
+        <v>105.41</v>
+      </c>
+      <c r="F54" s="7">
+        <v>-0.12</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A55" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B55" s="10">
+        <v>677446.83470000105</v>
+      </c>
+      <c r="C55" s="6">
+        <v>14153237.741456743</v>
+      </c>
+      <c r="D55" s="11">
+        <v>22283487.621817559</v>
+      </c>
+      <c r="E55" s="7">
+        <v>106.15</v>
+      </c>
+      <c r="F55" s="7">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A56" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B56" s="10">
+        <v>953005.425809999</v>
+      </c>
+      <c r="C56" s="6">
+        <v>14848077.712082636</v>
+      </c>
+      <c r="D56" s="11">
+        <v>24143337.688852258</v>
+      </c>
+      <c r="E56" s="7">
+        <v>104.69</v>
+      </c>
+      <c r="F56" s="7">
+        <v>-0.73</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A57" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B57" s="10">
+        <v>986172.25141999905</v>
+      </c>
+      <c r="C57" s="6">
+        <v>15510411.262161914</v>
+      </c>
+      <c r="D57" s="11">
+        <v>24835044.780737776</v>
+      </c>
+      <c r="E57" s="7">
+        <v>104.25</v>
+      </c>
+      <c r="F57" s="7">
+        <v>-1.1499999999999999</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A58" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B58" s="10">
+        <v>920836.17735999799</v>
+      </c>
+      <c r="C58" s="6">
+        <v>16819085.989253275</v>
+      </c>
+      <c r="D58" s="11">
+        <v>25770308.710210215</v>
+      </c>
+      <c r="E58" s="7">
+        <v>104.47</v>
+      </c>
+      <c r="F58" s="7">
+        <v>-0.89</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A59" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B59" s="10">
+        <v>1087846.00814</v>
+      </c>
+      <c r="C59" s="6">
+        <v>16693925.855632979</v>
+      </c>
+      <c r="D59" s="11">
+        <v>26594661.801691383</v>
+      </c>
+      <c r="E59" s="7">
+        <v>104.99</v>
+      </c>
+      <c r="F59" s="7">
+        <v>-1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A60" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B60" s="10">
+        <v>1144243.78629</v>
+      </c>
+      <c r="C60" s="6">
+        <v>17449637.796829812</v>
+      </c>
+      <c r="D60" s="11">
+        <v>27136142.145074014</v>
+      </c>
+      <c r="E60" s="7">
+        <v>105.53</v>
+      </c>
+      <c r="F60" s="7">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A61" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B61" s="10">
+        <v>1209458.9364700001</v>
+      </c>
+      <c r="C61" s="6">
+        <v>17541674.34702877</v>
+      </c>
+      <c r="D61" s="11">
+        <v>27408198.629753776</v>
+      </c>
+      <c r="E61" s="7">
+        <v>106.08</v>
+      </c>
+      <c r="F61" s="7">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A62" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B62" s="10">
+        <v>1103587.1663200001</v>
+      </c>
+      <c r="C62" s="6">
+        <v>18403324.947780721</v>
+      </c>
+      <c r="D62" s="11">
+        <v>28085444.056641772</v>
+      </c>
+      <c r="E62" s="7">
+        <v>107.23</v>
+      </c>
+      <c r="F62" s="7">
+        <v>2.64</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A63" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B63" s="10">
+        <v>1160374.3192499999</v>
+      </c>
+      <c r="C63" s="6">
+        <v>17309279.338135157</v>
+      </c>
+      <c r="D63" s="11">
+        <v>27989948.367648482</v>
+      </c>
+      <c r="E63" s="7">
+        <v>108.67</v>
+      </c>
+      <c r="F63" s="7">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A64" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B64" s="10">
+        <v>1220920.9744800001</v>
+      </c>
+      <c r="C64" s="6">
+        <v>18550453.321307946</v>
+      </c>
+      <c r="D64" s="11">
+        <v>28606966.619047448</v>
+      </c>
+      <c r="E64" s="7">
+        <v>109.66</v>
+      </c>
+      <c r="F64" s="7">
+        <v>3.92</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A65" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B65" s="10">
+        <v>1258652.9217900001</v>
+      </c>
+      <c r="C65" s="6">
+        <v>18351005.764418751</v>
+      </c>
+      <c r="D65" s="11">
+        <v>28500843.425267905</v>
+      </c>
+      <c r="E65" s="7">
+        <v>110.09</v>
+      </c>
+      <c r="F65" s="7">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A66" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B66" s="10">
+        <v>1191985.5021200001</v>
+      </c>
+      <c r="C66" s="6">
+        <v>19086903.585624184</v>
+      </c>
+      <c r="D66" s="11">
+        <v>28795566.409293517</v>
+      </c>
+      <c r="E66" s="7">
+        <v>110.4</v>
+      </c>
+      <c r="F66" s="7">
+        <v>2.96</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A67" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B67" s="10">
+        <v>1353454.5368600001</v>
+      </c>
+      <c r="C67" s="6">
+        <v>19305815.400652103</v>
+      </c>
+      <c r="D67" s="11">
+        <v>29361821.20156154</v>
+      </c>
+      <c r="E67" s="7">
+        <v>110.87</v>
+      </c>
+      <c r="F67" s="8">
+        <v>2.0299999999999998</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A68" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B68" s="10">
+        <v>1405884.4732299999</v>
+      </c>
+      <c r="C68" s="6">
+        <v>18247466.926984813</v>
+      </c>
+      <c r="D68" s="11">
+        <v>28582389.988322962</v>
+      </c>
+      <c r="E68" s="7">
+        <v>112.17</v>
+      </c>
+      <c r="F68" s="7">
+        <v>2.29</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A69" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B69" s="10">
+        <v>1496164.92395</v>
+      </c>
+      <c r="C69" s="6">
+        <v>19029963.954656031</v>
+      </c>
+      <c r="D69" s="11">
+        <v>28693776.463980466</v>
+      </c>
+      <c r="E69" s="7">
+        <v>111.88</v>
+      </c>
+      <c r="F69" s="7">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A70" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B70" s="10">
+        <v>1393705.09702</v>
+      </c>
+      <c r="C70" s="6">
+        <v>18357038.699090533</v>
+      </c>
+      <c r="D70" s="11">
+        <v>28456773.544578742</v>
+      </c>
+      <c r="E70" s="7">
+        <v>112.03</v>
+      </c>
+      <c r="F70" s="7">
+        <v>1.48</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A71" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B71" s="10">
+        <v>1611143.3774699999</v>
+      </c>
+      <c r="C71" s="6">
+        <v>18477403.218641855</v>
+      </c>
+      <c r="D71" s="11">
+        <v>28165583.555425141</v>
+      </c>
+      <c r="E71" s="7">
+        <v>113.26</v>
+      </c>
+      <c r="F71" s="7">
+        <v>2.15</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A72" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B72" s="10">
+        <v>1748483.1790100001</v>
+      </c>
+      <c r="C72" s="6">
+        <v>18788555.229522496</v>
+      </c>
+      <c r="D72" s="11">
+        <v>28073335.426567227</v>
+      </c>
+      <c r="E72" s="7">
+        <v>113.77</v>
+      </c>
+      <c r="F72" s="7">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A73" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B73" s="10">
+        <v>1786503.4559899999</v>
+      </c>
+      <c r="C73" s="6">
+        <v>19073400.017551403</v>
+      </c>
+      <c r="D73" s="11">
+        <v>28427742.077895682</v>
+      </c>
+      <c r="E73" s="7">
+        <v>113.15</v>
+      </c>
+      <c r="F73" s="7">
+        <v>1.1299999999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>